--- a/eclipse-workspace/VtigerCRM/testData/testscriptData.xlsx
+++ b/eclipse-workspace/VtigerCRM/testData/testscriptData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhijitmallik/eclipse-workspace/VtigerCRM/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8DC25-C0B7-0A4A-A69C-EC80A9C1815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E47D69E-BB59-E441-8021-08102253B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" activeTab="4" xr2:uid="{04D59B62-53D6-C04A-B9E2-07A821CBF4F8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>TC_ID</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>samar123@gmail.com</t>
+  </si>
+  <si>
+    <t>Emails</t>
+  </si>
+  <si>
+    <t>lastName</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +641,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,10 +663,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -748,7 +754,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,7 +812,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
